--- a/payment.xlsx
+++ b/payment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1514">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -4125,6 +4125,438 @@
   </si>
   <si>
     <t>Wed Jan 24 10:21:55 IST 2018</t>
+  </si>
+  <si>
+    <t>Dibyanshu Shekhar Singh</t>
+  </si>
+  <si>
+    <t>dibyanshusingh7618@gmail.com</t>
+  </si>
+  <si>
+    <t>TX12315</t>
+  </si>
+  <si>
+    <t>GKRP7A8</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 11:07:42 IST 2018</t>
+  </si>
+  <si>
+    <t>shubhamsingh20061997@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13244</t>
+  </si>
+  <si>
+    <t>79AMJQZ</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 11:30:12 IST 2018</t>
+  </si>
+  <si>
+    <t>Rohit Hirania</t>
+  </si>
+  <si>
+    <t>rohithirania@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14791</t>
+  </si>
+  <si>
+    <t>C9CPU8B</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 14:37:43 IST 2018</t>
+  </si>
+  <si>
+    <t>aditya ahuja</t>
+  </si>
+  <si>
+    <t>adityaahuja338@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15012</t>
+  </si>
+  <si>
+    <t>GZUBA3U</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 14:42:31 IST 2018</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>praveenhonavar45@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14568</t>
+  </si>
+  <si>
+    <t>YXE629B</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 14:44:33 IST 2018</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t>kav.amn.pai@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14600</t>
+  </si>
+  <si>
+    <t>D5KUU29</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 14:51:47 IST 2018</t>
+  </si>
+  <si>
+    <t>Prajna C</t>
+  </si>
+  <si>
+    <t>prajnac20@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14068</t>
+  </si>
+  <si>
+    <t>3HTFQZ4</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 14:53:44 IST 2018</t>
+  </si>
+  <si>
+    <t>Ankita Sharma</t>
+  </si>
+  <si>
+    <t>sharmaankita0031996@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15018</t>
+  </si>
+  <si>
+    <t>SBFC2UB</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 14:54:39 IST 2018</t>
+  </si>
+  <si>
+    <t>Srajan</t>
+  </si>
+  <si>
+    <t>srajankulal.salian@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14591</t>
+  </si>
+  <si>
+    <t>8HEB4RV</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 15:12:26 IST 2018</t>
+  </si>
+  <si>
+    <t>Shreedeeksha CH</t>
+  </si>
+  <si>
+    <t>deekshach99@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11618</t>
+  </si>
+  <si>
+    <t>6BSXMQJ</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 17:41:05 IST 2018</t>
+  </si>
+  <si>
+    <t>DEEPT MURTI MADHAV</t>
+  </si>
+  <si>
+    <t>Deepmadhav2111@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11861</t>
+  </si>
+  <si>
+    <t>VT4MKEB</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 18:53:25 IST 2018</t>
+  </si>
+  <si>
+    <t>POOJA SINGH</t>
+  </si>
+  <si>
+    <t>poojasinghgorakhpur@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11614</t>
+  </si>
+  <si>
+    <t>G2GJ8BE</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 19:16:05 IST 2018</t>
+  </si>
+  <si>
+    <t>SUBRAMANYA R</t>
+  </si>
+  <si>
+    <t>subbu.r2199@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14653</t>
+  </si>
+  <si>
+    <t>37X862Z</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 19:18:20 IST 2018</t>
+  </si>
+  <si>
+    <t>Mayur Singh</t>
+  </si>
+  <si>
+    <t>mayursingh0007@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13787</t>
+  </si>
+  <si>
+    <t>ZQBUGQP</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 19:37:31 IST 2018</t>
+  </si>
+  <si>
+    <t>abhishek srivastava</t>
+  </si>
+  <si>
+    <t>abhisheksrivastava94530@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13807</t>
+  </si>
+  <si>
+    <t>GKA7AVX</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 20:03:01 IST 2018</t>
+  </si>
+  <si>
+    <t>Richard singh</t>
+  </si>
+  <si>
+    <t>raghuvanshismriti080602@gmail.com</t>
+  </si>
+  <si>
+    <t>TX12733</t>
+  </si>
+  <si>
+    <t>CJU998E</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 20:20:12 IST 2018</t>
+  </si>
+  <si>
+    <t>SAIF AHMAD AGHA</t>
+  </si>
+  <si>
+    <t>saif.999rocks@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14522</t>
+  </si>
+  <si>
+    <t>HH2Z2Z4</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 20:48:30 IST 2018</t>
+  </si>
+  <si>
+    <t>ADARSH SINGH CHAUHAN</t>
+  </si>
+  <si>
+    <t>15cs045@bit.ac.in</t>
+  </si>
+  <si>
+    <t>TX14883</t>
+  </si>
+  <si>
+    <t>4MS7VZK</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 21:30:36 IST 2018</t>
+  </si>
+  <si>
+    <t>Dineshkumar A</t>
+  </si>
+  <si>
+    <t>dinesh11mail@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13587</t>
+  </si>
+  <si>
+    <t>A442P8R</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 21:41:12 IST 2018</t>
+  </si>
+  <si>
+    <t>Vasu D</t>
+  </si>
+  <si>
+    <t>vasumsv131@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14767</t>
+  </si>
+  <si>
+    <t>MEFPAKC</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 21:43:27 IST 2018</t>
+  </si>
+  <si>
+    <t>Vikash Sharma</t>
+  </si>
+  <si>
+    <t>vs57633@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14792</t>
+  </si>
+  <si>
+    <t>DPF48X3</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 21:55:18 IST 2018</t>
+  </si>
+  <si>
+    <t>Mohamed Azharudeen M</t>
+  </si>
+  <si>
+    <t>mohamedazhar6666@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15111</t>
+  </si>
+  <si>
+    <t>JDDKEY7</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 21:56:22 IST 2018</t>
+  </si>
+  <si>
+    <t>MAYANK SINGH KANDARI</t>
+  </si>
+  <si>
+    <t>msinghkandari@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13669</t>
+  </si>
+  <si>
+    <t>QB8MNXK</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 22:13:10 IST 2018</t>
+  </si>
+  <si>
+    <t>ALOK SHUKLA</t>
+  </si>
+  <si>
+    <t>ashershuklaofficial@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15015</t>
+  </si>
+  <si>
+    <t>VQMQSX5</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 22:19:24 IST 2018</t>
+  </si>
+  <si>
+    <t>Anurag Amrit</t>
+  </si>
+  <si>
+    <t>aamrit90@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11453</t>
+  </si>
+  <si>
+    <t>Y2QXCV2</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 22:30:44 IST 2018</t>
+  </si>
+  <si>
+    <t>Aman Sharma</t>
+  </si>
+  <si>
+    <t>15cs002@bit.ac.in</t>
+  </si>
+  <si>
+    <t>TX13999</t>
+  </si>
+  <si>
+    <t>X2KZ33S</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 22:37:46 IST 2018</t>
+  </si>
+  <si>
+    <t>lolugu venkatesh</t>
+  </si>
+  <si>
+    <t>venkateshlolugu9912415652@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14348</t>
+  </si>
+  <si>
+    <t>Q9CVXUY</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 22:58:02 IST 2018</t>
+  </si>
+  <si>
+    <t>Ravi Pratap Maurya</t>
+  </si>
+  <si>
+    <t>bit16it21@bit.ac.in</t>
+  </si>
+  <si>
+    <t>TX15124</t>
+  </si>
+  <si>
+    <t>RC8V3VG</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 23:00:49 IST 2018</t>
+  </si>
+  <si>
+    <t>Hemant Gupta</t>
+  </si>
+  <si>
+    <t>scholar.hemantt@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13666</t>
+  </si>
+  <si>
+    <t>3BY57PX</t>
+  </si>
+  <si>
+    <t>Wed Jan 24 23:49:56 IST 2018</t>
   </si>
 </sst>
 </file>
@@ -4473,7 +4905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15418,6 +15850,1221 @@
         <v>1369</v>
       </c>
     </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E406" t="s"/>
+      <c r="F406" t="s">
+        <v>21</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1175</v>
+      </c>
+      <c r="I406" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>457</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E407" t="s"/>
+      <c r="F407" t="s">
+        <v>18</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I407" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>457</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E408" t="s"/>
+      <c r="F408" t="s">
+        <v>204</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I408" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E409" t="s"/>
+      <c r="F409" t="s">
+        <v>152</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E410" t="s"/>
+      <c r="F410" t="s">
+        <v>21</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1175</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E411" t="s"/>
+      <c r="F411" t="s">
+        <v>168</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I411" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E412" t="s"/>
+      <c r="F412" t="s">
+        <v>73</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E413" t="s"/>
+      <c r="F413" t="s">
+        <v>18</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I413" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E414" t="s"/>
+      <c r="F414" t="s">
+        <v>18</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I414" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E415" t="s"/>
+      <c r="F415" t="s">
+        <v>18</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H415" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I415" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E416" t="s"/>
+      <c r="F416" t="s">
+        <v>168</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H416" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I416" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E417" t="s"/>
+      <c r="F417" t="s">
+        <v>73</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H417" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I417" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E418" t="s"/>
+      <c r="F418" t="s">
+        <v>18</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H418" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I418" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E419" t="s"/>
+      <c r="F419" t="s">
+        <v>18</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H419" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I419" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E420" t="s"/>
+      <c r="F420" t="s">
+        <v>168</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H420" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I420" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E421" t="s"/>
+      <c r="F421" t="s">
+        <v>106</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I421" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E422" t="s"/>
+      <c r="F422" t="s">
+        <v>18</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H422" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I422" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E423" t="s"/>
+      <c r="F423" t="s">
+        <v>18</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H423" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I423" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E424" t="s"/>
+      <c r="F424" t="s">
+        <v>152</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H424" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I424" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E425" t="s"/>
+      <c r="F425" t="s">
+        <v>25</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I425" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E426" t="s"/>
+      <c r="F426" t="s">
+        <v>152</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I426" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E427" t="s"/>
+      <c r="F427" t="s">
+        <v>25</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E428" t="s"/>
+      <c r="F428" t="s">
+        <v>42</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I428" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E429" t="s"/>
+      <c r="F429" t="s">
+        <v>18</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I429" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E430" t="s"/>
+      <c r="F430" t="s">
+        <v>212</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I430" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E431" t="s"/>
+      <c r="F431" t="s">
+        <v>152</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I431" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E432" t="s"/>
+      <c r="F432" t="s">
+        <v>25</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I432" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E433" t="s"/>
+      <c r="F433" t="s">
+        <v>42</v>
+      </c>
+      <c r="G433" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I433" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E434" t="s"/>
+      <c r="F434" t="s">
+        <v>18</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I434" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E435" t="s"/>
+      <c r="F435" t="s">
+        <v>18</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I435" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E436" t="s"/>
+      <c r="F436" t="s">
+        <v>21</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1175</v>
+      </c>
+      <c r="I436" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E437" t="s"/>
+      <c r="F437" t="s">
+        <v>42</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H437" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I437" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E438" t="s"/>
+      <c r="F438" t="s">
+        <v>675</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E439" t="s"/>
+      <c r="F439" t="s">
+        <v>168</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I439" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E440" t="s"/>
+      <c r="F440" t="s">
+        <v>168</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I440" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E441" t="s"/>
+      <c r="F441" t="s">
+        <v>32</v>
+      </c>
+      <c r="G441" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I441" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="A442" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E442" t="s"/>
+      <c r="F442" t="s">
+        <v>152</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I442" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E443" t="s"/>
+      <c r="F443" t="s">
+        <v>152</v>
+      </c>
+      <c r="G443" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H443" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I443" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E444" t="s"/>
+      <c r="F444" t="s">
+        <v>25</v>
+      </c>
+      <c r="G444" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H444" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I444" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E445" t="s"/>
+      <c r="F445" t="s">
+        <v>152</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H445" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I445" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E446" t="s"/>
+      <c r="F446" t="s">
+        <v>106</v>
+      </c>
+      <c r="G446" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I446" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E447" t="s"/>
+      <c r="F447" t="s">
+        <v>152</v>
+      </c>
+      <c r="G447" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I447" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E448" t="s"/>
+      <c r="F448" t="s">
+        <v>32</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I448" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E449" t="s"/>
+      <c r="F449" t="s">
+        <v>212</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H449" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I449" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E450" t="s"/>
+      <c r="F450" t="s">
+        <v>168</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H450" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I450" t="s">
+        <v>1513</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/payment.xlsx
+++ b/payment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1669">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -4557,6 +4557,471 @@
   </si>
   <si>
     <t>Wed Jan 24 23:49:56 IST 2018</t>
+  </si>
+  <si>
+    <t>manuj gupta</t>
+  </si>
+  <si>
+    <t>rajeevmanuj@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11486</t>
+  </si>
+  <si>
+    <t>T8TAZNC</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 08:35:43 IST 2018</t>
+  </si>
+  <si>
+    <t>4RP3Z73</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 08:44:07 IST 2018</t>
+  </si>
+  <si>
+    <t>Likhith R Kulal</t>
+  </si>
+  <si>
+    <t>likhithraj10@gmail.com</t>
+  </si>
+  <si>
+    <t>TX12633</t>
+  </si>
+  <si>
+    <t>SMZTHNV</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 08:55:39 IST 2018</t>
+  </si>
+  <si>
+    <t>Rahul A</t>
+  </si>
+  <si>
+    <t>rahul.bangera.999@gmail.com</t>
+  </si>
+  <si>
+    <t>9663885365</t>
+  </si>
+  <si>
+    <t>JXJQZBT</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 09:20:22 IST 2018</t>
+  </si>
+  <si>
+    <t>ASHUTOSH DHAR DUBEY</t>
+  </si>
+  <si>
+    <t>15cs029@bit.ac.in</t>
+  </si>
+  <si>
+    <t>TX15167</t>
+  </si>
+  <si>
+    <t>PA2YSEH</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 09:43:33 IST 2018</t>
+  </si>
+  <si>
+    <t>PRASHANT GUPTA</t>
+  </si>
+  <si>
+    <t>prashnew1996@gmail.com</t>
+  </si>
+  <si>
+    <t>TX10060</t>
+  </si>
+  <si>
+    <t>65SACK7</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 11:00:50 IST 2018</t>
+  </si>
+  <si>
+    <t>PRATISH KANNAUJIYA</t>
+  </si>
+  <si>
+    <t>Kannaujiyapratish@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11655</t>
+  </si>
+  <si>
+    <t>ZRAMGZA</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 11:24:35 IST 2018</t>
+  </si>
+  <si>
+    <t>NAGAR DIVYESH JITENDRABHAI</t>
+  </si>
+  <si>
+    <t>nagardivyesh5@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15177</t>
+  </si>
+  <si>
+    <t>PJ7F9PF</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 11:42:14 IST 2018</t>
+  </si>
+  <si>
+    <t>KAVAR PRAGATI RAMESHBHAI</t>
+  </si>
+  <si>
+    <t>kavarpragati15741@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15159</t>
+  </si>
+  <si>
+    <t>CUZE7Y7</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 12:15:31 IST 2018</t>
+  </si>
+  <si>
+    <t>JAYDEEP PRAVINBHAI VORA</t>
+  </si>
+  <si>
+    <t>jaydeepvora10@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15165</t>
+  </si>
+  <si>
+    <t>YXKZ4QN</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 12:45:53 IST 2018</t>
+  </si>
+  <si>
+    <t>Parminder Singh</t>
+  </si>
+  <si>
+    <t>sardarji97ps@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13960</t>
+  </si>
+  <si>
+    <t>6ENKX79</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 13:08:51 IST 2018</t>
+  </si>
+  <si>
+    <t>Koushik Choudhury</t>
+  </si>
+  <si>
+    <t>kaushik.choudhry09@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13963</t>
+  </si>
+  <si>
+    <t>Sandeep Jat</t>
+  </si>
+  <si>
+    <t>sandeepchoudhary4199@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14817</t>
+  </si>
+  <si>
+    <t>CBX965J</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 15:32:38 IST 2018</t>
+  </si>
+  <si>
+    <t>Sandhya</t>
+  </si>
+  <si>
+    <t>sandhyamogaveera036@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14546</t>
+  </si>
+  <si>
+    <t>86HMKDA</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 16:08:09 IST 2018</t>
+  </si>
+  <si>
+    <t>Pragyansh Dwivedi</t>
+  </si>
+  <si>
+    <t>pragyansh99@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14246</t>
+  </si>
+  <si>
+    <t>JK8XAVQ</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 16:33:17 IST 2018</t>
+  </si>
+  <si>
+    <t>Palimaru amruta</t>
+  </si>
+  <si>
+    <t>pamruthas09@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13526</t>
+  </si>
+  <si>
+    <t>N2DZS4Z</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 16:49:10 IST 2018</t>
+  </si>
+  <si>
+    <t>Mohd rahil</t>
+  </si>
+  <si>
+    <t>rhlrahil@gmail.com</t>
+  </si>
+  <si>
+    <t>TX10819</t>
+  </si>
+  <si>
+    <t>99K88QZ</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:03:30 IST 2018</t>
+  </si>
+  <si>
+    <t>Ravi Shankar Sharma</t>
+  </si>
+  <si>
+    <t>ravi.sh007bit@gmail.com</t>
+  </si>
+  <si>
+    <t>TX14524</t>
+  </si>
+  <si>
+    <t>BD3ZSPH</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:12:11 IST 2018</t>
+  </si>
+  <si>
+    <t>Kunal Karan</t>
+  </si>
+  <si>
+    <t>kunal161611@gmail.com</t>
+  </si>
+  <si>
+    <t>TX10621</t>
+  </si>
+  <si>
+    <t>PXA2SH6</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:14:03 IST 2018</t>
+  </si>
+  <si>
+    <t>Shubham kumar singh</t>
+  </si>
+  <si>
+    <t>sinhgshubham23@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13822</t>
+  </si>
+  <si>
+    <t>FZAEYV8</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:15:26 IST 2018</t>
+  </si>
+  <si>
+    <t>Shubham pandey</t>
+  </si>
+  <si>
+    <t>sp5218205@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13926</t>
+  </si>
+  <si>
+    <t>MNMHKX4</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:22:25 IST 2018</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Akshaycyj@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11607</t>
+  </si>
+  <si>
+    <t>2XJB6SA</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:25:51 IST 2018</t>
+  </si>
+  <si>
+    <t>sharanya s</t>
+  </si>
+  <si>
+    <t>sharanyasuvarna24@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13173</t>
+  </si>
+  <si>
+    <t>MX4HN89</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:52:15 IST 2018</t>
+  </si>
+  <si>
+    <t>Shail V Shukla</t>
+  </si>
+  <si>
+    <t>shail.shukla1702@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15257</t>
+  </si>
+  <si>
+    <t>ET8BJTS</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:57:30 IST 2018</t>
+  </si>
+  <si>
+    <t>Abhishek lalseta</t>
+  </si>
+  <si>
+    <t>lalsetaabhishek16@gmail.com</t>
+  </si>
+  <si>
+    <t>Tx15201</t>
+  </si>
+  <si>
+    <t>N4E9KYS</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:59:52 IST 2018</t>
+  </si>
+  <si>
+    <t>Rupali Agrahari</t>
+  </si>
+  <si>
+    <t>rupaliagrarhi1998@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13848</t>
+  </si>
+  <si>
+    <t>YRK2Y67</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 19:08:30 IST 2018</t>
+  </si>
+  <si>
+    <t>Darshil</t>
+  </si>
+  <si>
+    <t>sachdevdarshil1999@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15217</t>
+  </si>
+  <si>
+    <t>M4MBFFQ</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 19:12:49 IST 2018</t>
+  </si>
+  <si>
+    <t>Praveen Kumar Singh</t>
+  </si>
+  <si>
+    <t>officialpraveen7@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13859</t>
+  </si>
+  <si>
+    <t>FKXES6P</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 19:17:56 IST 2018</t>
+  </si>
+  <si>
+    <t>Abhinav Kumar Srivastava</t>
+  </si>
+  <si>
+    <t>srivastavaabhinav66@gmail.com</t>
+  </si>
+  <si>
+    <t>TX13554</t>
+  </si>
+  <si>
+    <t>4YUU7BN</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:21:18 IST 2018</t>
+  </si>
+  <si>
+    <t>Ayushi Singh</t>
+  </si>
+  <si>
+    <t>aayushissingh3003@gmail.com</t>
+  </si>
+  <si>
+    <t>TX11374</t>
+  </si>
+  <si>
+    <t>88R8GQP</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:33:28 IST 2018</t>
+  </si>
+  <si>
+    <t>Sneha Prajapati</t>
+  </si>
+  <si>
+    <t>15cs062@bit.ac.in</t>
+  </si>
+  <si>
+    <t>TX14540</t>
+  </si>
+  <si>
+    <t>NNZUCHT</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:57:49 IST 2018</t>
+  </si>
+  <si>
+    <t>Akarshit Pandey</t>
+  </si>
+  <si>
+    <t>alkasol.pandey103@gmail.com</t>
+  </si>
+  <si>
+    <t>TX15281</t>
+  </si>
+  <si>
+    <t>Q4XKUR8</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:57:58 IST 2018</t>
   </si>
 </sst>
 </file>
@@ -4905,7 +5370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:I493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17065,6 +17530,1167 @@
         <v>1513</v>
       </c>
     </row>
+    <row r="451" spans="1:9">
+      <c r="A451" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E451" t="s"/>
+      <c r="F451" t="s">
+        <v>18</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H451" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I451" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E452" t="s"/>
+      <c r="F452" t="s">
+        <v>204</v>
+      </c>
+      <c r="G452" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H452" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I452" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E453" t="s"/>
+      <c r="F453" t="s">
+        <v>18</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H453" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I453" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E454" t="s"/>
+      <c r="F454" t="s">
+        <v>18</v>
+      </c>
+      <c r="G454" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H454" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I454" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E455" t="s"/>
+      <c r="F455" t="s">
+        <v>204</v>
+      </c>
+      <c r="G455" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I455" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E456" t="s"/>
+      <c r="F456" t="s">
+        <v>168</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I456" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E457" t="s"/>
+      <c r="F457" t="s">
+        <v>152</v>
+      </c>
+      <c r="G457" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H457" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I457" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E458" t="s"/>
+      <c r="F458" t="s">
+        <v>346</v>
+      </c>
+      <c r="G458" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H458" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I458" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E459" t="s"/>
+      <c r="F459" t="s">
+        <v>18</v>
+      </c>
+      <c r="G459" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H459" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I459" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E460" t="s"/>
+      <c r="F460" t="s">
+        <v>42</v>
+      </c>
+      <c r="G460" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I460" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E461" t="s"/>
+      <c r="F461" t="s">
+        <v>42</v>
+      </c>
+      <c r="G461" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H461" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I461" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E462" t="s"/>
+      <c r="F462" t="s">
+        <v>42</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H462" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I462" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E463" t="s"/>
+      <c r="F463" t="s">
+        <v>18</v>
+      </c>
+      <c r="G463" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I463" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E464" t="s"/>
+      <c r="F464" t="s">
+        <v>18</v>
+      </c>
+      <c r="G464" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I464" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E465" t="s"/>
+      <c r="F465" t="s">
+        <v>18</v>
+      </c>
+      <c r="G465" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H465" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I465" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E466" t="s"/>
+      <c r="F466" t="s">
+        <v>18</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E467" t="s"/>
+      <c r="F467" t="s">
+        <v>204</v>
+      </c>
+      <c r="G467" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H467" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E468" t="s"/>
+      <c r="F468" t="s">
+        <v>168</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H468" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I468" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E469" t="s"/>
+      <c r="F469" t="s">
+        <v>18</v>
+      </c>
+      <c r="G469" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H469" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I469" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E470" t="s"/>
+      <c r="F470" t="s">
+        <v>675</v>
+      </c>
+      <c r="G470" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H470" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I470" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E471" t="s"/>
+      <c r="F471" t="s">
+        <v>168</v>
+      </c>
+      <c r="G471" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H471" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I471" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E472" t="s"/>
+      <c r="F472" t="s">
+        <v>152</v>
+      </c>
+      <c r="G472" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H472" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I472" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E473" t="s"/>
+      <c r="F473" t="s">
+        <v>212</v>
+      </c>
+      <c r="G473" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H473" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I473" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E474" t="s"/>
+      <c r="F474" t="s">
+        <v>18</v>
+      </c>
+      <c r="G474" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I474" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E475" t="s"/>
+      <c r="F475" t="s">
+        <v>675</v>
+      </c>
+      <c r="G475" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H475" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I475" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E476" t="s"/>
+      <c r="F476" t="s">
+        <v>168</v>
+      </c>
+      <c r="G476" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H476" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I476" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E477" t="s"/>
+      <c r="F477" t="s">
+        <v>675</v>
+      </c>
+      <c r="G477" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H477" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I477" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E478" t="s"/>
+      <c r="F478" t="s">
+        <v>168</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H478" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I478" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E479" t="s"/>
+      <c r="F479" t="s">
+        <v>18</v>
+      </c>
+      <c r="G479" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H479" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I479" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E480" t="s"/>
+      <c r="F480" t="s">
+        <v>18</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I480" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E481" t="s"/>
+      <c r="F481" t="s">
+        <v>42</v>
+      </c>
+      <c r="G481" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I481" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E482" t="s"/>
+      <c r="F482" t="s">
+        <v>42</v>
+      </c>
+      <c r="G482" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I482" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E483" t="s"/>
+      <c r="F483" t="s">
+        <v>18</v>
+      </c>
+      <c r="G483" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I483" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E484" t="s"/>
+      <c r="F484" t="s">
+        <v>42</v>
+      </c>
+      <c r="G484" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I484" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E485" t="s"/>
+      <c r="F485" t="s">
+        <v>18</v>
+      </c>
+      <c r="G485" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H485" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I485" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E486" t="s"/>
+      <c r="F486" t="s">
+        <v>117</v>
+      </c>
+      <c r="G486" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I486" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E487" t="s"/>
+      <c r="F487" t="s">
+        <v>204</v>
+      </c>
+      <c r="G487" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I487" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E488" t="s"/>
+      <c r="F488" t="s">
+        <v>168</v>
+      </c>
+      <c r="G488" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I488" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E489" t="s"/>
+      <c r="F489" t="s">
+        <v>32</v>
+      </c>
+      <c r="G489" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E490" t="s"/>
+      <c r="F490" t="s">
+        <v>168</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E491" t="s"/>
+      <c r="F491" t="s">
+        <v>204</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H491" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E492" t="s"/>
+      <c r="F492" t="s">
+        <v>117</v>
+      </c>
+      <c r="G492" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H492" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I492" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E493" t="s"/>
+      <c r="F493" t="s">
+        <v>204</v>
+      </c>
+      <c r="G493" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I493" t="s">
+        <v>1668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
